--- a/biology/Médecine/Jean_Petit_(football,_1914)/Jean_Petit_(football,_1914).xlsx
+++ b/biology/Médecine/Jean_Petit_(football,_1914)/Jean_Petit_(football,_1914).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Jean Petit  est un footballeur belge, né le 25 février 1914 à Liège (Belgique) et mort le 5 juin 1944.
-Il a évolué comme défenseur au Standard de Liège[1] avec son frère Roger. Il a joué quatre fois en équipe de Belgique en 1938[2].
+Il a évolué comme défenseur au Standard de Liège avec son frère Roger. Il a joué quatre fois en équipe de Belgique en 1938.
 Devenu médecin, il a été tué pendant un bombardement allié alors qu'il était en déplacement pour des visites domiciliaires de patients la veille du débarquement allié en Normandie.
 </t>
         </is>
@@ -514,7 +526,9 @@
           <t>Palmarès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>International belge A en 1938 (4 sélections)
 Présélectionné pour la Coupe du monde 1938 (ne joue pas)
